--- a/natmiOut/OldD0/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Lrp5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.10359773161923</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>8.10359773161923</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.008161958451368767</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.008161958451368767</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.68952067396597</v>
+        <v>6.215523666666666</v>
       </c>
       <c r="N2">
-        <v>5.68952067396597</v>
+        <v>18.646571</v>
       </c>
       <c r="O2">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="P2">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="Q2">
-        <v>46.10558682755135</v>
+        <v>0.4265340961013333</v>
       </c>
       <c r="R2">
-        <v>46.10558682755135</v>
+        <v>3.838806864912</v>
       </c>
       <c r="S2">
-        <v>0.2683793804524327</v>
+        <v>0.002327884858614943</v>
       </c>
       <c r="T2">
-        <v>0.2683793804524327</v>
+        <v>0.002327884858614943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.10359773161923</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>8.10359773161923</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.008161958451368767</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.008161958451368767</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.473217159010719</v>
+        <v>9.484070666666666</v>
       </c>
       <c r="N3">
-        <v>9.473217159010719</v>
+        <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="P3">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="Q3">
-        <v>76.76714108089563</v>
+        <v>0.6508348654293333</v>
       </c>
       <c r="R3">
-        <v>76.76714108089563</v>
+        <v>5.857513788864</v>
       </c>
       <c r="S3">
-        <v>0.4468594628120791</v>
+        <v>0.003552045762671452</v>
       </c>
       <c r="T3">
-        <v>0.4468594628120791</v>
+        <v>0.003552045762671452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.068624</v>
+      </c>
+      <c r="H4">
+        <v>0.205872</v>
+      </c>
+      <c r="I4">
+        <v>0.008161958451368767</v>
+      </c>
+      <c r="J4">
+        <v>0.008161958451368767</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6.093084</v>
+      </c>
+      <c r="N4">
+        <v>18.279252</v>
+      </c>
+      <c r="O4">
+        <v>0.2795931691737141</v>
+      </c>
+      <c r="P4">
+        <v>0.2795931691737141</v>
+      </c>
+      <c r="Q4">
+        <v>0.418131796416</v>
+      </c>
+      <c r="R4">
+        <v>3.763186167744</v>
+      </c>
+      <c r="S4">
+        <v>0.002282027830082374</v>
+      </c>
+      <c r="T4">
+        <v>0.002282027830082373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.252701666666667</v>
+      </c>
+      <c r="H5">
+        <v>24.758105</v>
+      </c>
+      <c r="I5">
+        <v>0.9815546764233375</v>
+      </c>
+      <c r="J5">
+        <v>0.9815546764233374</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.215523666666666</v>
+      </c>
+      <c r="N5">
+        <v>18.646571</v>
+      </c>
+      <c r="O5">
+        <v>0.2852115546146347</v>
+      </c>
+      <c r="P5">
+        <v>0.2852115546146347</v>
+      </c>
+      <c r="Q5">
+        <v>51.2948625231061</v>
+      </c>
+      <c r="R5">
+        <v>461.653762707955</v>
+      </c>
+      <c r="S5">
+        <v>0.2799507352019648</v>
+      </c>
+      <c r="T5">
+        <v>0.2799507352019648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.252701666666667</v>
+      </c>
+      <c r="H6">
+        <v>24.758105</v>
+      </c>
+      <c r="I6">
+        <v>0.9815546764233375</v>
+      </c>
+      <c r="J6">
+        <v>0.9815546764233374</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>9.484070666666666</v>
+      </c>
+      <c r="N6">
+        <v>28.452212</v>
+      </c>
+      <c r="O6">
+        <v>0.4351952762116512</v>
+      </c>
+      <c r="P6">
+        <v>0.4351952762116512</v>
+      </c>
+      <c r="Q6">
+        <v>78.26920579758443</v>
+      </c>
+      <c r="R6">
+        <v>704.42285217826</v>
+      </c>
+      <c r="S6">
+        <v>0.4271679585228923</v>
+      </c>
+      <c r="T6">
+        <v>0.4271679585228922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.252701666666667</v>
+      </c>
+      <c r="H7">
+        <v>24.758105</v>
+      </c>
+      <c r="I7">
+        <v>0.9815546764233375</v>
+      </c>
+      <c r="J7">
+        <v>0.9815546764233374</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.093084</v>
+      </c>
+      <c r="N7">
+        <v>18.279252</v>
+      </c>
+      <c r="O7">
+        <v>0.2795931691737141</v>
+      </c>
+      <c r="P7">
+        <v>0.2795931691737141</v>
+      </c>
+      <c r="Q7">
+        <v>50.28440448194</v>
+      </c>
+      <c r="R7">
+        <v>452.55964033746</v>
+      </c>
+      <c r="S7">
+        <v>0.2744359826984804</v>
+      </c>
+      <c r="T7">
+        <v>0.2744359826984804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>8.10359773161923</v>
-      </c>
-      <c r="H4">
-        <v>8.10359773161923</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>6.03680687263595</v>
-      </c>
-      <c r="N4">
-        <v>6.03680687263595</v>
-      </c>
-      <c r="O4">
-        <v>0.2847611567354882</v>
-      </c>
-      <c r="P4">
-        <v>0.2847611567354882</v>
-      </c>
-      <c r="Q4">
-        <v>48.91985447931606</v>
-      </c>
-      <c r="R4">
-        <v>48.91985447931606</v>
-      </c>
-      <c r="S4">
-        <v>0.2847611567354882</v>
-      </c>
-      <c r="T4">
-        <v>0.2847611567354882</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.08646033333333332</v>
+      </c>
+      <c r="H8">
+        <v>0.259381</v>
+      </c>
+      <c r="I8">
+        <v>0.01028336512529378</v>
+      </c>
+      <c r="J8">
+        <v>0.01028336512529378</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.215523666666666</v>
+      </c>
+      <c r="N8">
+        <v>18.646571</v>
+      </c>
+      <c r="O8">
+        <v>0.2852115546146347</v>
+      </c>
+      <c r="P8">
+        <v>0.2852115546146347</v>
+      </c>
+      <c r="Q8">
+        <v>0.5373962480612221</v>
+      </c>
+      <c r="R8">
+        <v>4.836566232550999</v>
+      </c>
+      <c r="S8">
+        <v>0.002932934554054958</v>
+      </c>
+      <c r="T8">
+        <v>0.002932934554054958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.08646033333333332</v>
+      </c>
+      <c r="H9">
+        <v>0.259381</v>
+      </c>
+      <c r="I9">
+        <v>0.01028336512529378</v>
+      </c>
+      <c r="J9">
+        <v>0.01028336512529378</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.484070666666666</v>
+      </c>
+      <c r="N9">
+        <v>28.452212</v>
+      </c>
+      <c r="O9">
+        <v>0.4351952762116512</v>
+      </c>
+      <c r="P9">
+        <v>0.4351952762116512</v>
+      </c>
+      <c r="Q9">
+        <v>0.8199959111968886</v>
+      </c>
+      <c r="R9">
+        <v>7.379963200771999</v>
+      </c>
+      <c r="S9">
+        <v>0.004475271926087489</v>
+      </c>
+      <c r="T9">
+        <v>0.004475271926087489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08646033333333332</v>
+      </c>
+      <c r="H10">
+        <v>0.259381</v>
+      </c>
+      <c r="I10">
+        <v>0.01028336512529378</v>
+      </c>
+      <c r="J10">
+        <v>0.01028336512529378</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.093084</v>
+      </c>
+      <c r="N10">
+        <v>18.279252</v>
+      </c>
+      <c r="O10">
+        <v>0.2795931691737141</v>
+      </c>
+      <c r="P10">
+        <v>0.2795931691737141</v>
+      </c>
+      <c r="Q10">
+        <v>0.5268100736679999</v>
+      </c>
+      <c r="R10">
+        <v>4.741290663011999</v>
+      </c>
+      <c r="S10">
+        <v>0.002875158645151337</v>
+      </c>
+      <c r="T10">
+        <v>0.002875158645151336</v>
       </c>
     </row>
   </sheetData>
